--- a/src/test/resources/Test-cases.xlsx
+++ b/src/test/resources/Test-cases.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\OTHER\testapicrud\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B94654-3CAA-4A57-9465-3BFE0D316F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F6114C-F45F-4A75-B2EF-22B85AE18220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="960" windowWidth="26835" windowHeight="13545" activeTab="3" xr2:uid="{4FA280AB-7E34-4784-AA2D-0B5F4A5E022E}"/>
+    <workbookView xWindow="29745" yWindow="960" windowWidth="26835" windowHeight="13545" activeTab="4" xr2:uid="{4FA280AB-7E34-4784-AA2D-0B5F4A5E022E}"/>
   </bookViews>
   <sheets>
     <sheet name="POST" sheetId="1" r:id="rId1"/>
     <sheet name="PUT" sheetId="2" r:id="rId2"/>
     <sheet name="GET" sheetId="3" r:id="rId3"/>
     <sheet name="DELETE" sheetId="4" r:id="rId4"/>
+    <sheet name="Unexpected methods" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Functionality</t>
   </si>
@@ -194,6 +195,33 @@
   </si>
   <si>
     <t>Repeat test with different valid test data</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Hitting endpoins with unexpected request types</t>
+  </si>
+  <si>
+    <t>putRequestToBaseUrl</t>
+  </si>
+  <si>
+    <t>deleteRequestToBaseUrl</t>
+  </si>
+  <si>
+    <t>postRequestToGetUserUrl</t>
+  </si>
+  <si>
+    <t>Status 405</t>
+  </si>
+  <si>
+    <t>Send PUT  request to base endpoint</t>
+  </si>
+  <si>
+    <t>Send DELETE  request to base endpoint</t>
+  </si>
+  <si>
+    <t>Send POST request to base endpoint + id</t>
   </si>
 </sst>
 </file>
@@ -295,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -307,12 +335,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -322,8 +353,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,77 +703,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
@@ -778,62 +824,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>404</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -862,75 +908,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>404</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>404</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -944,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E382EFA-7C20-4C33-BB96-37729865B378}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -961,62 +1007,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C284A72A-32E3-4C13-88CF-CBECB970CA2A}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/resources/Test-cases.xlsx
+++ b/src/test/resources/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\OTHER\testapicrud\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F6114C-F45F-4A75-B2EF-22B85AE18220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8C3EE-D5A9-4A5B-B128-04A2AC9C09D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29745" yWindow="960" windowWidth="26835" windowHeight="13545" activeTab="4" xr2:uid="{4FA280AB-7E34-4784-AA2D-0B5F4A5E022E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Functionality</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Send POST request to base endpoint + id</t>
+  </si>
+  <si>
+    <t>baseUrl = http://localhost:port/rs/users/</t>
   </si>
 </sst>
 </file>
@@ -341,6 +344,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -352,15 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -689,7 +692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -737,7 +740,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -750,7 +753,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,6 +779,9 @@
       <c r="E5" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,11 +813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D77CEFD-8BBB-45F1-8E2B-D193A9D5D2EA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +847,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -856,7 +862,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +875,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -880,6 +886,11 @@
         <v>31</v>
       </c>
       <c r="E4" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -891,11 +902,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6518CA52-58C6-48BD-BBC0-65272409C6B5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +936,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -940,7 +951,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -953,7 +964,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -966,7 +977,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -977,6 +988,11 @@
         <v>36</v>
       </c>
       <c r="E5" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -988,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E382EFA-7C20-4C33-BB96-37729865B378}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1040,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1039,7 +1055,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1068,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1063,6 +1079,11 @@
         <v>42</v>
       </c>
       <c r="E4" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1074,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C284A72A-32E3-4C13-88CF-CBECB970CA2A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,11 +1169,16 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
